--- a/Scenarios/parameters_targets_2.xlsx
+++ b/Scenarios/parameters_targets_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mov_rev_3_targ" sheetId="11" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <t>czml_content.append(cztl.createObsTarget('</t>
   </si>
   <si>
-    <t>,include_billboard=True))</t>
+    <t>,include_billboard=True,name_with_num=True))</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -404,13 +404,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -467,6 +473,9 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -515,6 +524,9 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1491,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1818,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1876,7 +1888,7 @@
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K36" si="0">CONCATENATE(G2,F2,H2,B2,I2,C2,J2)</f>
-        <v>czml_content.append(cztl.createObsTarget('Galapagos 1',start_avail,end_avail,latitude=0,longitude=-91.222371,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Galapagos 1',start_avail,end_avail,latitude=0,longitude=-91.222371,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1913,7 +1925,7 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Ecuador 2',start_avail,end_avail,latitude=0,longitude=-79.053278,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Ecuador 2',start_avail,end_avail,latitude=0,longitude=-79.053278,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1950,7 +1962,7 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Colombia 3',start_avail,end_avail,latitude=0,longitude=-72.134137,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Colombia 3',start_avail,end_avail,latitude=0,longitude=-72.134137,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1987,7 +1999,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Brazil_A 4',start_avail,end_avail,latitude=0,longitude=-63.573218,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Brazil_A 4',start_avail,end_avail,latitude=0,longitude=-63.573218,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2024,7 +2036,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Brazil_B 5',start_avail,end_avail,latitude=0,longitude=-54.888228,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Brazil_B 5',start_avail,end_avail,latitude=0,longitude=-54.888228,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2061,7 +2073,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Gabon 6',start_avail,end_avail,latitude=0,longitude=11.979442,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Gabon 6',start_avail,end_avail,latitude=0,longitude=11.979442,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2098,7 +2110,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Congo 7',start_avail,end_avail,latitude=0,longitude=21.56979,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Congo 7',start_avail,end_avail,latitude=0,longitude=21.56979,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2135,7 +2147,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Uganda 8',start_avail,end_avail,latitude=0,longitude=31.148284,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Uganda 8',start_avail,end_avail,latitude=0,longitude=31.148284,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2172,7 +2184,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Kenya 9',start_avail,end_avail,latitude=0,longitude=39.514179,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Kenya 9',start_avail,end_avail,latitude=0,longitude=39.514179,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2209,7 +2221,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Indonesia_A 10',start_avail,end_avail,latitude=0,longitude=101.016609,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Indonesia_A 10',start_avail,end_avail,latitude=0,longitude=101.016609,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2246,7 +2258,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Indonesia_B 11',start_avail,end_avail,latitude=0,longitude=113.497076,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Indonesia_B 11',start_avail,end_avail,latitude=0,longitude=113.497076,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2283,7 +2295,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Indonesia_C 12',start_avail,end_avail,latitude=0,longitude=127.911138,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Indonesia_C 12',start_avail,end_avail,latitude=0,longitude=127.911138,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2320,7 +2332,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget('Kiribati 13',start_avail,end_avail,latitude=0,longitude=-157.311491,include_billboard=True))</v>
+        <v>czml_content.append(cztl.createObsTarget('Kiribati 13',start_avail,end_avail,latitude=0,longitude=-157.311491,include_billboard=True,name_with_num=True))</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2343,10 +2355,6 @@
       <c r="J15" t="s">
         <v>72</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 14',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
@@ -2368,12 +2376,8 @@
       <c r="J16" t="s">
         <v>72</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 15',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2393,12 +2397,8 @@
       <c r="J17" t="s">
         <v>72</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 16',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2418,12 +2418,8 @@
       <c r="J18" t="s">
         <v>72</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 17',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2443,12 +2439,8 @@
       <c r="J19" t="s">
         <v>72</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 18',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2468,12 +2460,8 @@
       <c r="J20" t="s">
         <v>72</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 19',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2493,12 +2481,8 @@
       <c r="J21" t="s">
         <v>72</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 20',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2518,12 +2502,8 @@
       <c r="J22" t="s">
         <v>72</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 21',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2543,12 +2523,8 @@
       <c r="J23" t="s">
         <v>72</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 22',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2568,12 +2544,8 @@
       <c r="J24" t="s">
         <v>72</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 23',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2593,12 +2565,8 @@
       <c r="J25" t="s">
         <v>72</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 24',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2618,12 +2586,8 @@
       <c r="J26" t="s">
         <v>72</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 25',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2643,12 +2607,8 @@
       <c r="J27" t="s">
         <v>72</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 26',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2668,12 +2628,8 @@
       <c r="J28" t="s">
         <v>72</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 27',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2693,12 +2649,8 @@
       <c r="J29" t="s">
         <v>72</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 28',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2718,12 +2670,8 @@
       <c r="J30" t="s">
         <v>72</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 29',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2743,12 +2691,8 @@
       <c r="J31" t="s">
         <v>72</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 30',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2768,12 +2712,8 @@
       <c r="J32" t="s">
         <v>72</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 31',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2793,12 +2733,8 @@
       <c r="J33" t="s">
         <v>72</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 32',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2818,12 +2754,8 @@
       <c r="J34" t="s">
         <v>72</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 33',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2843,12 +2775,8 @@
       <c r="J35" t="s">
         <v>72</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 34',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2867,10 +2795,6 @@
       </c>
       <c r="J36" t="s">
         <v>72</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="0"/>
-        <v>czml_content.append(cztl.createObsTarget(' 35',start_avail,end_avail,latitude=,longitude=,include_billboard=True))</v>
       </c>
     </row>
   </sheetData>
